--- a/pred_ohlcv/54_21/2019-11-20 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 PPT ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-521970.9185</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-521970.9185</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-521488.5655</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-521880.0947</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-526770.9285</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-525397.4555</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-524069.6423000001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-525040.792</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-523147.5637</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-523147.5637</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-519852.1512</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-518419.6937290698</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-508211.9153290699</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-512284.3645826699</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-512284.3645826699</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-511593.3159826699</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-511593.3159826699</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-512321.4026826699</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-512321.4026826699</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-511410.7541826699</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-511410.7541826699</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-511494.5274826699</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-512617.6238826699</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-20 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 PPT ohlcv.xlsx
@@ -1432,7 +1432,7 @@
         <v>-526770.9285</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-525397.4555</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-524069.6423000001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-525040.792</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-523147.5637</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-523147.5637</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-519852.1512</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-520728.6881</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-521073.2433</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-521073.2433</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-521073.2433</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-521073.2433</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-521073.2433</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-520500.4133</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-520790.2524999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-520790.2524999999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-518636.5162</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-519813.5598999999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-519544.5598999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-518419.6937290698</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-508414.1439290699</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-508414.1439290699</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-508571.1439290699</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-508237.4124290699</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-508169.4124290699</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-508211.9153290699</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-508751.4153290699</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-509251.4153290699</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-509126.4153290699</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-509384.6481290699</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-508642.5676290699</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-508642.5676290699</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-508751.0593290699</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-508751.0593290699</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-508751.0593290699</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-508751.0593290699</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-507660.7758290699</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-512974.37868267</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-512974.37868267</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-512858.5746826699</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-512284.3645826699</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-512284.3645826699</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-512284.3645826699</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-511593.3159826699</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-511593.3159826699</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-512321.4026826699</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-512321.4026826699</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-511410.7541826699</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-511410.7541826699</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-511494.5274826699</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-512617.6238826699</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
